--- a/libertadores/datasets_liberta/resultados_fase_1.xlsx
+++ b/libertadores/datasets_liberta/resultados_fase_1.xlsx
@@ -84,7 +84,7 @@
     <t>Mau Humor F.C.</t>
   </si>
   <si>
-    <t>BORGES ITAQUI F.C.</t>
+    <t>Grêmio imortal 36</t>
   </si>
   <si>
     <t>Fedato Futebol Clube</t>

--- a/libertadores/datasets_liberta/resultados_fase_1.xlsx
+++ b/libertadores/datasets_liberta/resultados_fase_1.xlsx
@@ -550,9 +550,15 @@
       <c r="C2" t="s">
         <v>14</v>
       </c>
+      <c r="D2">
+        <v>38.5</v>
+      </c>
       <c r="E2" t="s">
         <v>30</v>
       </c>
+      <c r="F2">
+        <v>39.66</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
@@ -564,8 +570,14 @@
       <c r="C3" t="s">
         <v>15</v>
       </c>
+      <c r="D3">
+        <v>41.6</v>
+      </c>
       <c r="E3" t="s">
         <v>31</v>
+      </c>
+      <c r="F3">
+        <v>64.95999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -578,8 +590,14 @@
       <c r="C4" t="s">
         <v>16</v>
       </c>
+      <c r="D4">
+        <v>59.76</v>
+      </c>
       <c r="E4" t="s">
         <v>32</v>
+      </c>
+      <c r="F4">
+        <v>45.86</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -592,8 +610,14 @@
       <c r="C5" t="s">
         <v>17</v>
       </c>
+      <c r="D5">
+        <v>39.66</v>
+      </c>
       <c r="E5" t="s">
         <v>33</v>
+      </c>
+      <c r="F5">
+        <v>58.4</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -606,8 +630,14 @@
       <c r="C6" t="s">
         <v>18</v>
       </c>
+      <c r="D6">
+        <v>34.36</v>
+      </c>
       <c r="E6" t="s">
         <v>34</v>
+      </c>
+      <c r="F6">
+        <v>71.36</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -620,8 +650,14 @@
       <c r="C7" t="s">
         <v>19</v>
       </c>
+      <c r="D7">
+        <v>69.56</v>
+      </c>
       <c r="E7" t="s">
         <v>35</v>
+      </c>
+      <c r="F7">
+        <v>53.06</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -634,8 +670,14 @@
       <c r="C8" t="s">
         <v>20</v>
       </c>
+      <c r="D8">
+        <v>69.76000000000001</v>
+      </c>
       <c r="E8" t="s">
         <v>36</v>
+      </c>
+      <c r="F8">
+        <v>45.46</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -648,8 +690,14 @@
       <c r="C9" t="s">
         <v>21</v>
       </c>
+      <c r="D9">
+        <v>30.6</v>
+      </c>
       <c r="E9" t="s">
         <v>37</v>
+      </c>
+      <c r="F9">
+        <v>59.56</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -662,8 +710,14 @@
       <c r="C10" t="s">
         <v>22</v>
       </c>
+      <c r="D10">
+        <v>50.6</v>
+      </c>
       <c r="E10" t="s">
         <v>38</v>
+      </c>
+      <c r="F10">
+        <v>73.66</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -676,8 +730,14 @@
       <c r="C11" t="s">
         <v>23</v>
       </c>
+      <c r="D11">
+        <v>49.16</v>
+      </c>
       <c r="E11" t="s">
         <v>39</v>
+      </c>
+      <c r="F11">
+        <v>57.25</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -690,8 +750,14 @@
       <c r="C12" t="s">
         <v>24</v>
       </c>
+      <c r="D12">
+        <v>30.06</v>
+      </c>
       <c r="E12" t="s">
         <v>40</v>
+      </c>
+      <c r="F12">
+        <v>54.36</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -704,8 +770,14 @@
       <c r="C13" t="s">
         <v>25</v>
       </c>
+      <c r="D13">
+        <v>47.2</v>
+      </c>
       <c r="E13" t="s">
         <v>41</v>
+      </c>
+      <c r="F13">
+        <v>51.05</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -718,8 +790,14 @@
       <c r="C14" t="s">
         <v>26</v>
       </c>
+      <c r="D14">
+        <v>45.3</v>
+      </c>
       <c r="E14" t="s">
         <v>42</v>
+      </c>
+      <c r="F14">
+        <v>57.76</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -732,8 +810,14 @@
       <c r="C15" t="s">
         <v>27</v>
       </c>
+      <c r="D15">
+        <v>69.26000000000001</v>
+      </c>
       <c r="E15" t="s">
         <v>43</v>
+      </c>
+      <c r="F15">
+        <v>43.1</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -746,11 +830,17 @@
       <c r="C16" t="s">
         <v>28</v>
       </c>
+      <c r="D16">
+        <v>34.76</v>
+      </c>
       <c r="E16" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16">
+        <v>56.65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -760,8 +850,14 @@
       <c r="C17" t="s">
         <v>29</v>
       </c>
+      <c r="D17">
+        <v>59.86</v>
+      </c>
       <c r="E17" t="s">
         <v>45</v>
+      </c>
+      <c r="F17">
+        <v>50.76</v>
       </c>
     </row>
   </sheetData>

--- a/libertadores/datasets_liberta/resultados_fase_1.xlsx
+++ b/libertadores/datasets_liberta/resultados_fase_1.xlsx
@@ -551,13 +551,13 @@
         <v>14</v>
       </c>
       <c r="D2">
-        <v>38.5</v>
+        <v>48.5</v>
       </c>
       <c r="E2" t="s">
         <v>30</v>
       </c>
       <c r="F2">
-        <v>39.66</v>
+        <v>43.56</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -571,13 +571,13 @@
         <v>15</v>
       </c>
       <c r="D3">
-        <v>41.6</v>
+        <v>46.79</v>
       </c>
       <c r="E3" t="s">
         <v>31</v>
       </c>
       <c r="F3">
-        <v>64.95999999999999</v>
+        <v>66.86</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -591,13 +591,13 @@
         <v>16</v>
       </c>
       <c r="D4">
-        <v>59.76</v>
+        <v>65.06</v>
       </c>
       <c r="E4" t="s">
         <v>32</v>
       </c>
       <c r="F4">
-        <v>45.86</v>
+        <v>47.16</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -611,13 +611,13 @@
         <v>17</v>
       </c>
       <c r="D5">
-        <v>39.66</v>
+        <v>43.56</v>
       </c>
       <c r="E5" t="s">
         <v>33</v>
       </c>
       <c r="F5">
-        <v>58.4</v>
+        <v>59.69</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -651,13 +651,13 @@
         <v>19</v>
       </c>
       <c r="D7">
-        <v>69.56</v>
+        <v>71.45999999999999</v>
       </c>
       <c r="E7" t="s">
         <v>35</v>
       </c>
       <c r="F7">
-        <v>53.06</v>
+        <v>57.26</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -671,13 +671,13 @@
         <v>20</v>
       </c>
       <c r="D8">
-        <v>69.76000000000001</v>
+        <v>71.36</v>
       </c>
       <c r="E8" t="s">
         <v>36</v>
       </c>
       <c r="F8">
-        <v>45.46</v>
+        <v>49.36</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -691,13 +691,13 @@
         <v>21</v>
       </c>
       <c r="D9">
-        <v>30.6</v>
+        <v>50.69</v>
       </c>
       <c r="E9" t="s">
         <v>37</v>
       </c>
       <c r="F9">
-        <v>59.56</v>
+        <v>63.76</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -711,13 +711,13 @@
         <v>22</v>
       </c>
       <c r="D10">
-        <v>50.6</v>
+        <v>56.09</v>
       </c>
       <c r="E10" t="s">
         <v>38</v>
       </c>
       <c r="F10">
-        <v>73.66</v>
+        <v>81.76000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -731,13 +731,13 @@
         <v>23</v>
       </c>
       <c r="D11">
-        <v>49.16</v>
+        <v>50.76</v>
       </c>
       <c r="E11" t="s">
         <v>39</v>
       </c>
       <c r="F11">
-        <v>57.25</v>
+        <v>59.65</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -751,13 +751,13 @@
         <v>24</v>
       </c>
       <c r="D12">
-        <v>30.06</v>
+        <v>33.96</v>
       </c>
       <c r="E12" t="s">
         <v>40</v>
       </c>
       <c r="F12">
-        <v>54.36</v>
+        <v>58.26</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -771,13 +771,13 @@
         <v>25</v>
       </c>
       <c r="D13">
-        <v>47.2</v>
+        <v>52.39</v>
       </c>
       <c r="E13" t="s">
         <v>41</v>
       </c>
       <c r="F13">
-        <v>51.05</v>
+        <v>54.95</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -791,13 +791,13 @@
         <v>26</v>
       </c>
       <c r="D14">
-        <v>45.3</v>
+        <v>48.89</v>
       </c>
       <c r="E14" t="s">
         <v>42</v>
       </c>
       <c r="F14">
-        <v>57.76</v>
+        <v>59.36</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -811,13 +811,13 @@
         <v>27</v>
       </c>
       <c r="D15">
-        <v>69.26000000000001</v>
+        <v>71.16</v>
       </c>
       <c r="E15" t="s">
         <v>43</v>
       </c>
       <c r="F15">
-        <v>43.1</v>
+        <v>48.29</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -831,7 +831,7 @@
         <v>28</v>
       </c>
       <c r="D16">
-        <v>34.76</v>
+        <v>38.66</v>
       </c>
       <c r="E16" t="s">
         <v>44</v>
@@ -851,13 +851,13 @@
         <v>29</v>
       </c>
       <c r="D17">
-        <v>59.86</v>
+        <v>63.76</v>
       </c>
       <c r="E17" t="s">
         <v>45</v>
       </c>
       <c r="F17">
-        <v>50.76</v>
+        <v>54.66</v>
       </c>
     </row>
   </sheetData>

--- a/libertadores/datasets_liberta/resultados_fase_1.xlsx
+++ b/libertadores/datasets_liberta/resultados_fase_1.xlsx
@@ -551,13 +551,13 @@
         <v>14</v>
       </c>
       <c r="D2">
-        <v>48.5</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
         <v>30</v>
       </c>
       <c r="F2">
-        <v>43.56</v>
+        <v>47.86</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -571,7 +571,7 @@
         <v>15</v>
       </c>
       <c r="D3">
-        <v>46.79</v>
+        <v>54.6</v>
       </c>
       <c r="E3" t="s">
         <v>31</v>
@@ -591,13 +591,13 @@
         <v>16</v>
       </c>
       <c r="D4">
-        <v>65.06</v>
+        <v>84.86</v>
       </c>
       <c r="E4" t="s">
         <v>32</v>
       </c>
       <c r="F4">
-        <v>47.16</v>
+        <v>49.76</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -611,13 +611,13 @@
         <v>17</v>
       </c>
       <c r="D5">
-        <v>43.56</v>
+        <v>47.86</v>
       </c>
       <c r="E5" t="s">
         <v>33</v>
       </c>
       <c r="F5">
-        <v>59.69</v>
+        <v>72.7</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -631,13 +631,13 @@
         <v>18</v>
       </c>
       <c r="D6">
-        <v>34.36</v>
+        <v>60.16</v>
       </c>
       <c r="E6" t="s">
         <v>34</v>
       </c>
       <c r="F6">
-        <v>71.36</v>
+        <v>72.86</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -651,13 +651,13 @@
         <v>19</v>
       </c>
       <c r="D7">
-        <v>71.45999999999999</v>
+        <v>74.06</v>
       </c>
       <c r="E7" t="s">
         <v>35</v>
       </c>
       <c r="F7">
-        <v>57.26</v>
+        <v>61.56</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -671,13 +671,13 @@
         <v>20</v>
       </c>
       <c r="D8">
-        <v>71.36</v>
+        <v>73.95999999999999</v>
       </c>
       <c r="E8" t="s">
         <v>36</v>
       </c>
       <c r="F8">
-        <v>49.36</v>
+        <v>53.66</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -691,13 +691,13 @@
         <v>21</v>
       </c>
       <c r="D9">
-        <v>50.69</v>
+        <v>64.7</v>
       </c>
       <c r="E9" t="s">
         <v>37</v>
       </c>
       <c r="F9">
-        <v>63.76</v>
+        <v>68.06</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -711,13 +711,13 @@
         <v>22</v>
       </c>
       <c r="D10">
-        <v>56.09</v>
+        <v>63.9</v>
       </c>
       <c r="E10" t="s">
         <v>38</v>
       </c>
       <c r="F10">
-        <v>81.76000000000001</v>
+        <v>84.26000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -731,13 +731,13 @@
         <v>23</v>
       </c>
       <c r="D11">
-        <v>50.76</v>
+        <v>54.16</v>
       </c>
       <c r="E11" t="s">
         <v>39</v>
       </c>
       <c r="F11">
-        <v>59.65</v>
+        <v>72.45</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -751,13 +751,13 @@
         <v>24</v>
       </c>
       <c r="D12">
-        <v>33.96</v>
+        <v>38.26</v>
       </c>
       <c r="E12" t="s">
         <v>40</v>
       </c>
       <c r="F12">
-        <v>58.26</v>
+        <v>62.56</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -771,13 +771,13 @@
         <v>25</v>
       </c>
       <c r="D13">
-        <v>52.39</v>
+        <v>60.2</v>
       </c>
       <c r="E13" t="s">
         <v>41</v>
       </c>
       <c r="F13">
-        <v>54.95</v>
+        <v>59.25</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -791,13 +791,13 @@
         <v>26</v>
       </c>
       <c r="D14">
-        <v>48.89</v>
+        <v>54.1</v>
       </c>
       <c r="E14" t="s">
         <v>42</v>
       </c>
       <c r="F14">
-        <v>59.36</v>
+        <v>61.96</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -811,13 +811,13 @@
         <v>27</v>
       </c>
       <c r="D15">
-        <v>71.16</v>
+        <v>73.76000000000001</v>
       </c>
       <c r="E15" t="s">
         <v>43</v>
       </c>
       <c r="F15">
-        <v>48.29</v>
+        <v>57.6</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -831,13 +831,13 @@
         <v>28</v>
       </c>
       <c r="D16">
-        <v>38.66</v>
+        <v>42.96</v>
       </c>
       <c r="E16" t="s">
         <v>44</v>
       </c>
       <c r="F16">
-        <v>56.65</v>
+        <v>57.45</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -851,13 +851,13 @@
         <v>29</v>
       </c>
       <c r="D17">
-        <v>63.76</v>
+        <v>68.06</v>
       </c>
       <c r="E17" t="s">
         <v>45</v>
       </c>
       <c r="F17">
-        <v>54.66</v>
+        <v>58.96</v>
       </c>
     </row>
   </sheetData>
